--- a/output/tottus_resultado.xlsx
+++ b/output/tottus_resultado.xlsx
@@ -157,7 +157,7 @@
     <t>20215634</t>
   </si>
   <si>
-    <t>7637</t>
+    <t>3536</t>
   </si>
 </sst>
 </file>
